--- a/TestData/BulkDelete.xlsx
+++ b/TestData/BulkDelete.xlsx
@@ -412,7 +412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/TestData/BulkDelete.xlsx
+++ b/TestData/BulkDelete.xlsx
@@ -49,9 +49,6 @@
     <t>Account Name|starts with|A</t>
   </si>
   <si>
-    <t>Phone|contains|9</t>
-  </si>
-  <si>
     <t>Filter5</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Phone|contains|98</t>
   </si>
 </sst>
 </file>
@@ -413,13 +413,13 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
     <col min="4" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
     <col min="7" max="7" width="29.7109375" bestFit="1" customWidth="1"/>
@@ -446,16 +446,16 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
@@ -472,13 +472,13 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
         <v>1</v>
